--- a/simulation_data/one_step_algorithm/1s_error_level_6_percent_water_60.xlsx
+++ b/simulation_data/one_step_algorithm/1s_error_level_6_percent_water_60.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>89.91689066212453</v>
+        <v>89.79407614378454</v>
       </c>
       <c r="D2" t="n">
-        <v>1.408477262877982</v>
+        <v>1.227904733323828</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>88.91222727540716</v>
+        <v>89.07984435531378</v>
       </c>
       <c r="D3" t="n">
-        <v>1.352932495372994</v>
+        <v>1.646452787784084</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>88.03806269568706</v>
+        <v>87.81458187035254</v>
       </c>
       <c r="D4" t="n">
-        <v>1.451259232575233</v>
+        <v>1.463676805370102</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>87.08999635837671</v>
+        <v>86.9299911791355</v>
       </c>
       <c r="D5" t="n">
-        <v>1.500189747063496</v>
+        <v>1.551536101030654</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>85.77871491689538</v>
+        <v>86.06426722405486</v>
       </c>
       <c r="D6" t="n">
-        <v>1.291204580997385</v>
+        <v>1.59431792681096</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>84.81083838108168</v>
+        <v>84.93850086751586</v>
       </c>
       <c r="D7" t="n">
-        <v>1.444958192655208</v>
+        <v>1.472630128380909</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>84.29019862389069</v>
+        <v>84.11188881623862</v>
       </c>
       <c r="D8" t="n">
-        <v>1.566315961781262</v>
+        <v>1.457910778549349</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>82.97323321458558</v>
+        <v>83.00465090817085</v>
       </c>
       <c r="D9" t="n">
-        <v>1.587205414226932</v>
+        <v>1.746946505464817</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>82.00279362626537</v>
+        <v>81.73676740441005</v>
       </c>
       <c r="D10" t="n">
-        <v>1.527183626354263</v>
+        <v>1.572053659180605</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>81.18396524991256</v>
+        <v>81.26122931902168</v>
       </c>
       <c r="D11" t="n">
-        <v>1.40425328720609</v>
+        <v>1.540461065435448</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>79.91344419820837</v>
+        <v>80.02411283163536</v>
       </c>
       <c r="D12" t="n">
-        <v>1.504429102383107</v>
+        <v>1.751982560630173</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>78.85981484330082</v>
+        <v>78.81361060237485</v>
       </c>
       <c r="D13" t="n">
-        <v>1.613961120333671</v>
+        <v>1.626040757654323</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>78.01780338046038</v>
+        <v>78.15846710641546</v>
       </c>
       <c r="D14" t="n">
-        <v>1.614003754533617</v>
+        <v>1.692174997028027</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>77.15863100374645</v>
+        <v>76.95518382781265</v>
       </c>
       <c r="D15" t="n">
-        <v>1.487066576986332</v>
+        <v>1.540992586345122</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>76.05842213161435</v>
+        <v>76.04530083954876</v>
       </c>
       <c r="D16" t="n">
-        <v>1.777695933290522</v>
+        <v>1.599235451762944</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>75.07001394535459</v>
+        <v>75.08813858144896</v>
       </c>
       <c r="D17" t="n">
-        <v>1.385823997172391</v>
+        <v>1.517639418009111</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>73.80198352183231</v>
+        <v>74.07350322765824</v>
       </c>
       <c r="D18" t="n">
-        <v>1.548942403101963</v>
+        <v>1.71028891940889</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>72.96892136396957</v>
+        <v>72.94552168789438</v>
       </c>
       <c r="D19" t="n">
-        <v>1.54225068654123</v>
+        <v>1.766814093671397</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>72.05267401837845</v>
+        <v>71.85822990095579</v>
       </c>
       <c r="D20" t="n">
-        <v>1.446041084736897</v>
+        <v>1.601157975965893</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>71.07186792259913</v>
+        <v>70.90554234528436</v>
       </c>
       <c r="D21" t="n">
-        <v>1.577343595529456</v>
+        <v>1.745789987537068</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>69.87237466896589</v>
+        <v>70.22528017137235</v>
       </c>
       <c r="D22" t="n">
-        <v>1.531148567195956</v>
+        <v>1.602252885012683</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>69.08546950501638</v>
+        <v>69.06437802573528</v>
       </c>
       <c r="D23" t="n">
-        <v>1.618200894641476</v>
+        <v>1.80120848055162</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>68.23343447493798</v>
+        <v>67.89180157265645</v>
       </c>
       <c r="D24" t="n">
-        <v>1.670755627909684</v>
+        <v>1.468744947899423</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>66.91578490056402</v>
+        <v>66.85135609810642</v>
       </c>
       <c r="D25" t="n">
-        <v>1.78104238318994</v>
+        <v>1.539950563288735</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>65.96391441907521</v>
+        <v>66.01102506194871</v>
       </c>
       <c r="D26" t="n">
-        <v>1.641585051113469</v>
+        <v>1.601801021882029</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>65.02188450519409</v>
+        <v>64.93503532957817</v>
       </c>
       <c r="D27" t="n">
-        <v>1.506927000325558</v>
+        <v>1.639183813776079</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>64.18016561146759</v>
+        <v>64.21966113893741</v>
       </c>
       <c r="D28" t="n">
-        <v>1.737105900514754</v>
+        <v>1.725998100977035</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>63.07963593775811</v>
+        <v>62.85121665095457</v>
       </c>
       <c r="D29" t="n">
-        <v>1.534811269369528</v>
+        <v>1.815354117467427</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>61.97654341401987</v>
+        <v>61.81170583885451</v>
       </c>
       <c r="D30" t="n">
-        <v>1.769380888546639</v>
+        <v>1.61262483982552</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>60.99843074351165</v>
+        <v>61.12807063416786</v>
       </c>
       <c r="D31" t="n">
-        <v>1.489610484982393</v>
+        <v>1.830853143248239</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>59.91056570033292</v>
+        <v>59.92954750254133</v>
       </c>
       <c r="D32" t="n">
-        <v>1.610342113909696</v>
+        <v>1.757060582400974</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>58.85017631205588</v>
+        <v>58.89220787608546</v>
       </c>
       <c r="D33" t="n">
-        <v>1.683651344811931</v>
+        <v>1.75450364110234</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>57.81744182047431</v>
+        <v>58.18063272389386</v>
       </c>
       <c r="D34" t="n">
-        <v>1.738323522333223</v>
+        <v>1.901937239665798</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>56.71205585388871</v>
+        <v>56.89764034881473</v>
       </c>
       <c r="D35" t="n">
-        <v>2.049833621466833</v>
+        <v>1.672368768289189</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>55.66015279548798</v>
+        <v>55.86459955709058</v>
       </c>
       <c r="D36" t="n">
-        <v>1.986868489048255</v>
+        <v>1.779163054834536</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>55.14375111563083</v>
+        <v>55.04074382425667</v>
       </c>
       <c r="D37" t="n">
-        <v>1.848375078411002</v>
+        <v>1.852040831887426</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>54.17952598739683</v>
+        <v>53.85754205731643</v>
       </c>
       <c r="D38" t="n">
-        <v>2.008926705559615</v>
+        <v>1.659587627103652</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>52.93950429317569</v>
+        <v>53.27213846166663</v>
       </c>
       <c r="D39" t="n">
-        <v>1.861442197221196</v>
+        <v>1.9294208403857</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>51.7926333421356</v>
+        <v>52.06900661756244</v>
       </c>
       <c r="D40" t="n">
-        <v>1.745638739283737</v>
+        <v>1.965660033987183</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>51.02447228960752</v>
+        <v>51.05485042937513</v>
       </c>
       <c r="D41" t="n">
-        <v>1.717148371182645</v>
+        <v>1.849920241701842</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>50.13975850646023</v>
+        <v>49.79977754848866</v>
       </c>
       <c r="D42" t="n">
-        <v>2.032284616361031</v>
+        <v>1.848872605901414</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>49.17373074501684</v>
+        <v>49.05465119647607</v>
       </c>
       <c r="D43" t="n">
-        <v>1.792061793426023</v>
+        <v>1.845956822793763</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>47.81144982441083</v>
+        <v>48.25893835247371</v>
       </c>
       <c r="D44" t="n">
-        <v>1.54230468145837</v>
+        <v>1.793525978455859</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>47.17586870926655</v>
+        <v>46.69306966595633</v>
       </c>
       <c r="D45" t="n">
-        <v>1.953554962023846</v>
+        <v>1.916768851796477</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>45.64877782967196</v>
+        <v>45.8495596277024</v>
       </c>
       <c r="D46" t="n">
-        <v>1.875663053579136</v>
+        <v>1.804431863266561</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>44.87823259994566</v>
+        <v>45.19908901785819</v>
       </c>
       <c r="D47" t="n">
-        <v>2.154285120639047</v>
+        <v>1.895036189991556</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>43.88207187799197</v>
+        <v>43.55663325394504</v>
       </c>
       <c r="D48" t="n">
-        <v>1.942886296198708</v>
+        <v>2.100727425250621</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>42.63901951687572</v>
+        <v>43.1900991500776</v>
       </c>
       <c r="D49" t="n">
-        <v>1.892220442370306</v>
+        <v>2.046762338132892</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>41.95502828360209</v>
+        <v>41.55686805488218</v>
       </c>
       <c r="D50" t="n">
-        <v>2.024591434842543</v>
+        <v>1.87050453185324</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>41.04467588164077</v>
+        <v>41.34341247421863</v>
       </c>
       <c r="D51" t="n">
-        <v>1.956732677921431</v>
+        <v>2.080670798883776</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>39.53425916722206</v>
+        <v>40.03817507060984</v>
       </c>
       <c r="D52" t="n">
-        <v>1.980904870288539</v>
+        <v>2.095078226153581</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>39.27635033753728</v>
+        <v>38.77941631713283</v>
       </c>
       <c r="D53" t="n">
-        <v>1.817446784962736</v>
+        <v>1.841010686105507</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>38.03017061833069</v>
+        <v>37.91423407599184</v>
       </c>
       <c r="D54" t="n">
-        <v>1.807889129591334</v>
+        <v>2.044564283735927</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>37.38153553803099</v>
+        <v>36.92363396248625</v>
       </c>
       <c r="D55" t="n">
-        <v>1.855004871430684</v>
+        <v>1.832436300120786</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>36.15006137121514</v>
+        <v>35.72226904342906</v>
       </c>
       <c r="D56" t="n">
-        <v>1.951685424406278</v>
+        <v>2.028482152624593</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>34.88566042075956</v>
+        <v>35.24690472815619</v>
       </c>
       <c r="D57" t="n">
-        <v>2.002162778240617</v>
+        <v>1.94924191204957</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>34.0306051284525</v>
+        <v>33.76614198750723</v>
       </c>
       <c r="D58" t="n">
-        <v>1.930089266494977</v>
+        <v>2.220918135124931</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>32.8202543638992</v>
+        <v>33.06687465104631</v>
       </c>
       <c r="D59" t="n">
-        <v>2.022270390619317</v>
+        <v>2.092409672782498</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>31.56511589735226</v>
+        <v>31.77962016691875</v>
       </c>
       <c r="D60" t="n">
-        <v>2.103552518408078</v>
+        <v>1.992078535176884</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>31.06121971487044</v>
+        <v>31.22147336384621</v>
       </c>
       <c r="D61" t="n">
-        <v>2.178105186057993</v>
+        <v>1.87112126620582</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>30.30569222277292</v>
+        <v>29.99105914755502</v>
       </c>
       <c r="D62" t="n">
-        <v>1.931922315091859</v>
+        <v>2.044896778601294</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>28.92580360785701</v>
+        <v>28.76872147538404</v>
       </c>
       <c r="D63" t="n">
-        <v>1.97861802505303</v>
+        <v>2.097624395145032</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>27.80062821840194</v>
+        <v>27.65895461405684</v>
       </c>
       <c r="D64" t="n">
-        <v>2.425091398897279</v>
+        <v>2.015487393236148</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>26.81674393518111</v>
+        <v>26.81500770298925</v>
       </c>
       <c r="D65" t="n">
-        <v>1.984994228582926</v>
+        <v>2.288555522447673</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>26.10473638875281</v>
+        <v>26.04068561027685</v>
       </c>
       <c r="D66" t="n">
-        <v>2.261353268769278</v>
+        <v>1.91311053608639</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>24.87191060478447</v>
+        <v>25.47065301408499</v>
       </c>
       <c r="D67" t="n">
-        <v>1.921320755683593</v>
+        <v>2.030305633272914</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>24.13802547013133</v>
+        <v>24.11207829991648</v>
       </c>
       <c r="D68" t="n">
-        <v>1.949361638116715</v>
+        <v>2.241973393785944</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>22.98269820721801</v>
+        <v>22.63991210596922</v>
       </c>
       <c r="D69" t="n">
-        <v>2.010558808274276</v>
+        <v>1.977747043723915</v>
       </c>
     </row>
   </sheetData>
